--- a/XSTARS_Templates.xlsx
+++ b/XSTARS_Templates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\xstars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A8C55-2621-4695-AAED-EFEEEAD7ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C57C4-1855-472B-B894-B103F0BA2709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FF660348-B1F2-43E8-941F-DC1A9AAC170D}"/>
+    <workbookView xWindow="-5800" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{FF660348-B1F2-43E8-941F-DC1A9AAC170D}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Protein</t>
   </si>
@@ -159,9 +159,6 @@
   <si>
     <t>Select data region → qPCR → 'Has reference gene'</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Select A4:H7 → ELISA button</t>
   </si>
   <si>
     <t>2. Dialog shows fit results; click OK</t>
@@ -304,6 +301,10 @@
   </si>
   <si>
     <t>Select data region → Tools → Standard Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Select data region → ELISA button</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +578,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -917,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4FB2C1-439F-4EA0-AAF3-AE14C424D14C}">
   <dimension ref="B1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +938,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B1" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -945,7 +949,7 @@
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -956,7 +960,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1186,233 +1190,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5D15EE-C3F8-473B-9B6B-9760CFE73522}">
-  <dimension ref="F1:R15"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.9296875" customWidth="1"/>
-    <col min="9" max="9" width="12.06640625" customWidth="1"/>
-    <col min="10" max="10" width="11.9296875" customWidth="1"/>
-    <col min="17" max="17" width="12.06640625" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.9296875" customWidth="1"/>
+    <col min="5" max="5" width="12.06640625" customWidth="1"/>
+    <col min="6" max="6" width="11.9296875" customWidth="1"/>
+    <col min="11" max="11" width="12.06640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F1" s="13" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-    </row>
-    <row r="2" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F2" s="1" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F3" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="6:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O4" t="s">
+    <row r="4" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="6:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F6" s="5">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="5">
         <v>12000</v>
       </c>
-      <c r="G6">
+      <c r="C6">
         <v>28000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="D6" s="6">
         <v>6500</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F7" s="5">
+      <c r="L6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="5">
         <v>15000</v>
       </c>
-      <c r="G7">
+      <c r="C7">
         <v>31000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="D7" s="6">
         <v>7200</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P7">
+      <c r="J7" s="14">
         <v>12000</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="K7" s="14">
         <v>28000</v>
       </c>
-    </row>
-    <row r="8" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F8" s="5">
+      <c r="L7" s="6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="5">
         <v>11500</v>
       </c>
-      <c r="G8">
+      <c r="C8">
         <v>26500</v>
       </c>
-      <c r="H8" s="6">
+      <c r="D8" s="6">
         <v>5800</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="J8" s="14">
         <v>15000</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="K8" s="14">
         <v>31000</v>
       </c>
-    </row>
-    <row r="9" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F9" s="5">
+      <c r="L8" s="6">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="5">
         <v>13200</v>
       </c>
-      <c r="G9">
+      <c r="C9">
         <v>29200</v>
       </c>
-      <c r="H9" s="6">
+      <c r="D9" s="6">
         <v>6900</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P9">
+      <c r="J9" s="14">
         <v>11500</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="K9" s="14">
         <v>26500</v>
       </c>
-    </row>
-    <row r="10" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="F10" s="5">
+      <c r="L9" s="6">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="5">
         <v>14100</v>
       </c>
-      <c r="G10">
+      <c r="C10">
         <v>27800</v>
       </c>
-      <c r="H10" s="6">
+      <c r="D10" s="6">
         <v>7500</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P10">
+      <c r="J10" s="14">
         <v>8000</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="K10" s="14">
         <v>12000</v>
       </c>
-    </row>
-    <row r="11" spans="6:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F11" s="7">
+      <c r="L10" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="7">
         <v>12800</v>
       </c>
-      <c r="G11" s="8">
+      <c r="C11" s="8">
         <v>30500</v>
       </c>
-      <c r="H11" s="9">
+      <c r="D11" s="9">
         <v>6100</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="J11" s="14">
         <v>9200</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="K11" s="14">
         <v>13500</v>
       </c>
-    </row>
-    <row r="12" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="O12" s="5" t="s">
+      <c r="L11" s="6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P12">
+      <c r="J12" s="14">
         <v>7800</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="K12" s="14">
         <v>11000</v>
       </c>
-    </row>
-    <row r="13" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="O13" s="5" t="s">
+      <c r="L12" s="6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P13">
+      <c r="J13" s="14">
         <v>45000</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="K13" s="14">
         <v>44000</v>
       </c>
-    </row>
-    <row r="14" spans="6:18" x14ac:dyDescent="0.4">
-      <c r="O14" s="5" t="s">
+      <c r="L13" s="6">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P14">
+      <c r="J14" s="14">
         <v>47000</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="K14" s="14">
         <v>46000</v>
       </c>
-    </row>
-    <row r="15" spans="6:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="O15" s="7" t="s">
+      <c r="L14" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="8">
+      <c r="J15" s="8">
         <v>43000</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="K15" s="8">
         <v>43500</v>
+      </c>
+      <c r="L15" s="9">
+        <v>42500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1788,7 +1824,7 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C1" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
@@ -1798,38 +1834,38 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.4">
@@ -1966,7 +2002,7 @@
   <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2038,7 +2074,7 @@
         <v>1000</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="P4" s="5">
         <v>0.35199999999999998</v>
@@ -2076,7 +2112,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="5">
         <v>0.36499999999999999</v>
@@ -2114,7 +2150,7 @@
         <v>2.1949999999999998</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="5">
         <v>0.34799999999999998</v>
@@ -2184,290 +2220,321 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B0A9934-8574-4CD9-BEDE-6544C95B06AF}">
-  <dimension ref="C1:N15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M28"/>
+      <selection activeCell="B6" sqref="B6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="K1" s="13"/>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C6" s="2" t="s">
+    <row r="5" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="14">
         <v>12000</v>
       </c>
+      <c r="D7" s="14">
+        <v>28000</v>
+      </c>
       <c r="E7" s="6">
-        <v>28000</v>
-      </c>
-      <c r="K7" s="5" t="s">
+        <v>6500</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
       <c r="L7">
-        <v>25</v>
-      </c>
-      <c r="M7">
         <v>20.5</v>
       </c>
-      <c r="N7" s="6">
+      <c r="M7" s="6">
         <v>23.8</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="14">
         <v>15000</v>
       </c>
+      <c r="D8" s="14">
+        <v>31000</v>
+      </c>
       <c r="E8" s="6">
-        <v>31000</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>7200</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K8">
+        <v>25.5</v>
+      </c>
       <c r="L8">
-        <v>25.5</v>
-      </c>
-      <c r="M8">
         <v>21</v>
       </c>
-      <c r="N8" s="6">
+      <c r="M8" s="6">
         <v>24.2</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="14">
         <v>11500</v>
       </c>
+      <c r="D9" s="14">
+        <v>26500</v>
+      </c>
       <c r="E9" s="6">
-        <v>26500</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>5800</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="K9">
+        <v>25.2</v>
+      </c>
       <c r="L9">
-        <v>25.2</v>
-      </c>
-      <c r="M9">
         <v>20.8</v>
       </c>
-      <c r="N9" s="6">
+      <c r="M9" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="14">
         <v>8000</v>
       </c>
+      <c r="D10" s="14">
+        <v>12000</v>
+      </c>
       <c r="E10" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K10" s="5" t="s">
+        <v>4000</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K10">
+        <v>28</v>
+      </c>
       <c r="L10">
-        <v>28</v>
-      </c>
-      <c r="M10">
         <v>24</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="6">
         <v>27.5</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="14">
         <v>9200</v>
       </c>
+      <c r="D11" s="14">
+        <v>13500</v>
+      </c>
       <c r="E11" s="6">
-        <v>13500</v>
-      </c>
-      <c r="K11" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K11">
+        <v>28.2</v>
+      </c>
       <c r="L11">
-        <v>28.2</v>
-      </c>
-      <c r="M11">
         <v>24.5</v>
       </c>
-      <c r="N11" s="6">
+      <c r="M11" s="6">
         <v>27.8</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="14">
         <v>7800</v>
       </c>
+      <c r="D12" s="14">
+        <v>11000</v>
+      </c>
       <c r="E12" s="6">
-        <v>11000</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>4200</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="K12">
+        <v>27.8</v>
+      </c>
       <c r="L12">
-        <v>27.8</v>
-      </c>
-      <c r="M12">
         <v>24.2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="M12" s="6">
         <v>27.2</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="C13" s="14">
         <v>45000</v>
       </c>
+      <c r="D13" s="14">
+        <v>44000</v>
+      </c>
       <c r="E13" s="6">
-        <v>44000</v>
-      </c>
-      <c r="K13" s="5" t="s">
+        <v>43000</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
       <c r="L13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M13" s="6">
         <v>18</v>
       </c>
-      <c r="M13">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="N13" s="6">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14">
+        <v>47000</v>
+      </c>
+      <c r="D14" s="14">
+        <v>46000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45000</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>18.2</v>
+      </c>
+      <c r="L14">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M14" s="6">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43000</v>
+      </c>
+      <c r="D15" s="8">
+        <v>43500</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42500</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="8">
+        <v>17.8</v>
+      </c>
+      <c r="L15" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>47000</v>
-      </c>
-      <c r="E14" s="6">
-        <v>46000</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>18.2</v>
-      </c>
-      <c r="M14">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="N14" s="6">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8">
-        <v>43000</v>
-      </c>
-      <c r="E15" s="9">
-        <v>43500</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="8">
-        <v>17.8</v>
-      </c>
-      <c r="M15" s="8">
-        <v>18</v>
-      </c>
-      <c r="N15" s="9">
+      <c r="M15" s="9">
         <v>17.899999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2486,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -2496,10 +2563,10 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2507,18 +2574,18 @@
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
